--- a/TS2/NewData.xlsx
+++ b/TS2/NewData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet.dewani\Desktop\Initial Tasks\TS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet.dewani\Desktop\Initial Tasks\excelcomparison\TS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC5F89C-06F5-4F02-A520-4B34659CCF7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD605C4B-7982-4F9F-8779-FFEF722D618D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48FE45C7-C7C0-4C04-B1C6-F34EEF9D1C55}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1164,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
